--- a/Requirements Sheet/Chekout_Lane_Queue_Simulation.xlsx
+++ b/Requirements Sheet/Chekout_Lane_Queue_Simulation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>SN</t>
   </si>
@@ -100,14 +100,113 @@
     <t>15 customers</t>
   </si>
   <si>
-    <t>I only open lanes are at maximum capacity them new lanes should be opened</t>
+    <t>If only open lanes are at maximum capacity them new lanes should be opened</t>
+  </si>
+  <si>
+    <t>Assigning Lanes to Customers</t>
+  </si>
+  <si>
+    <t>Based on No of items in their basket</t>
+  </si>
+  <si>
+    <t>Self Service Lane:</t>
+  </si>
+  <si>
+    <t>&lt;10 items</t>
+  </si>
+  <si>
+    <t>Regular Lane:</t>
+  </si>
+  <si>
+    <t>Anyone</t>
+  </si>
+  <si>
+    <t>If self service lane is at max capacity 
+Then regular Lanes can be used</t>
+  </si>
+  <si>
+    <t>Customer Basket Modeling</t>
+  </si>
+  <si>
+    <t>Customers Should haave baskets with random no 
+upto 30</t>
+  </si>
+  <si>
+    <t>Random Basket initialization should be done</t>
+  </si>
+  <si>
+    <t>Customers prefer shortest lane</t>
+  </si>
+  <si>
+    <t>Events For Simulation</t>
+  </si>
+  <si>
+    <t>Enter Lane</t>
+  </si>
+  <si>
+    <t>Add Customer to a lane</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Process Checkout Basket</t>
+  </si>
+  <si>
+    <t>1st in the lane then processed
+Once checkout time is up 
+Customer exits</t>
+  </si>
+  <si>
+    <t>Leave Lane</t>
+  </si>
+  <si>
+    <t>When Checkout is completed or
+customer is moved to another 
+lane</t>
+  </si>
+  <si>
+    <t>Move Lane</t>
+  </si>
+  <si>
+    <t>When lane becomes too long.
+and a need to regulate lanes.</t>
+  </si>
+  <si>
+    <t>Open Lane</t>
+  </si>
+  <si>
+    <t>Close Lane</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Generate random numbers for basket for upto 10 customers</t>
+  </si>
+  <si>
+    <t>Lanes assignment accordingly</t>
+  </si>
+  <si>
+    <t>customers willing to join a lane should not exceed 40</t>
+  </si>
+  <si>
+    <t>Should assign lanes and remove them</t>
+  </si>
+  <si>
+    <t>If all open lanes are full then open a new lane if available,
+else lane saturation</t>
+  </si>
+  <si>
+    <t>Terminated by setting a time limit for its duration or by 
+allowing user intervention to stop.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -150,6 +249,34 @@
     <font>
       <b/>
       <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -205,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -240,6 +367,24 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,6 +603,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="6" max="6" width="35.88"/>
+    <col customWidth="1" min="8" max="8" width="40.0"/>
+    <col customWidth="1" min="11" max="11" width="23.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,7 +801,7 @@
       <c r="A21" s="3">
         <v>19.0</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -667,26 +814,47 @@
       <c r="A23" s="3">
         <v>21.0</v>
       </c>
+      <c r="H23" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3">
         <v>22.0</v>
       </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3">
         <v>23.0</v>
       </c>
+      <c r="H25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3">
         <v>24.0</v>
       </c>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3">
         <v>25.0</v>
       </c>
+      <c r="H27" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3">
@@ -697,21 +865,33 @@
       <c r="A29" s="3">
         <v>27.0</v>
       </c>
+      <c r="H29" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3">
         <v>28.0</v>
       </c>
+      <c r="H30" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3">
         <v>29.0</v>
       </c>
+      <c r="H31" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3">
         <v>30.0</v>
       </c>
+      <c r="H32" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
@@ -727,26 +907,56 @@
       <c r="A35" s="3">
         <v>33.0</v>
       </c>
+      <c r="H35" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3">
         <v>34.0</v>
       </c>
+      <c r="H36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3">
         <v>35.0</v>
       </c>
+      <c r="H37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3">
         <v>36.0</v>
       </c>
+      <c r="H38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3">
         <v>37.0</v>
       </c>
+      <c r="H39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3">
@@ -757,145 +967,89 @@
       <c r="A41" s="3">
         <v>39.0</v>
       </c>
+      <c r="H41" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3">
-        <v>42.0</v>
+      <c r="H42" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
-        <v>43.0</v>
+      <c r="H45" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
-        <v>44.0</v>
+      <c r="H46" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
-        <v>45.0</v>
+      <c r="H47" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3">
-        <v>47.0</v>
+      <c r="H48" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
-        <v>48.0</v>
+      <c r="H50" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
-        <v>49.0</v>
+      <c r="H51" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3">
-        <v>64.0</v>
+      <c r="H52" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H14:K14"/>
+  <mergeCells count="61">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
@@ -908,31 +1062,18 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
